--- a/Thesis/developer_states.xlsx
+++ b/Thesis/developer_states.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Desktop/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80B72D93-B2E3-49EE-9695-CACAB73A90C2}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649E1524-1684-45AB-AC93-495F54A48BA6}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8180" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="456">
   <si>
     <t>unique_id</t>
   </si>
@@ -1004,9 +1004,6 @@
     <t>AF1-116</t>
   </si>
   <si>
-    <t>Not Specified</t>
-  </si>
-  <si>
     <t>120.0</t>
   </si>
   <si>
@@ -1343,9 +1340,6 @@
     <t>64.2</t>
   </si>
   <si>
-    <t>wind,solar,Hybrid</t>
-  </si>
-  <si>
     <t>wind_offshore</t>
   </si>
   <si>
@@ -1404,6 +1398,12 @@
   </si>
   <si>
     <t>developer</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29B94B-9539-40D3-B7DF-08904E974596}">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="H314" sqref="H314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1841,13 +1841,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1861,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1884,16 +1884,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1901,22 +1901,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1924,22 +1924,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1976,16 +1976,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1999,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2022,16 +2022,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2045,16 +2045,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2068,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2091,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2137,16 +2137,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2160,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2183,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2206,16 +2206,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2229,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2252,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2275,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2298,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2321,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2344,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2367,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2390,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2413,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2436,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2482,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2528,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2574,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2620,16 +2620,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2643,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2666,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2712,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2735,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2758,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2781,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2804,16 +2804,16 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2827,16 +2827,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2849,17 +2849,17 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>351</v>
+      <c r="D45" s="2">
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2872,17 +2872,17 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>351</v>
+      <c r="D46" s="2">
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2896,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2919,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2942,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2965,16 +2965,16 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2988,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3011,16 +3011,16 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3034,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3057,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3080,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3103,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3126,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3149,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3172,16 +3172,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3195,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3218,16 +3218,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3241,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3264,16 +3264,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3304,22 +3304,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3356,16 +3356,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3379,16 +3379,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3396,22 +3396,22 @@
         <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>351</v>
+      <c r="D69" s="2">
+        <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3425,16 +3425,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3448,16 +3448,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -3471,16 +3471,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -3494,16 +3494,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -3517,16 +3517,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -3540,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3563,16 +3563,16 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -3586,16 +3586,16 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3609,16 +3609,16 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3632,16 +3632,16 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -3655,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3678,16 +3678,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -3701,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -3724,16 +3724,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -3747,16 +3747,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -3770,16 +3770,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -3793,16 +3793,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -3816,16 +3816,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -3839,16 +3839,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3862,16 +3862,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3885,16 +3885,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3908,16 +3908,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3931,16 +3931,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -3954,16 +3954,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3977,16 +3977,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -4000,16 +4000,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4023,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4040,22 +4040,22 @@
         <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>322</v>
+        <v>455</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4063,22 +4063,22 @@
         <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>322</v>
+        <v>455</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4092,16 +4092,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4115,16 +4115,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4138,16 +4138,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4161,16 +4161,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4184,16 +4184,16 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4207,16 +4207,16 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4230,16 +4230,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4276,16 +4276,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4298,17 +4298,17 @@
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>351</v>
+      <c r="D108" s="2">
+        <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -4345,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4368,16 +4368,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -4391,16 +4391,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -4414,16 +4414,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -4437,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -4460,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -4483,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -4506,16 +4506,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -4529,16 +4529,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -4552,16 +4552,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4575,16 +4575,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -4598,16 +4598,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -4621,16 +4621,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -4644,16 +4644,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -4667,16 +4667,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -4690,16 +4690,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -4713,16 +4713,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -4736,16 +4736,16 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -4759,16 +4759,16 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -4782,16 +4782,16 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -4805,16 +4805,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -4828,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -4851,16 +4851,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -4873,17 +4873,17 @@
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>351</v>
+      <c r="D133" s="2">
+        <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -4897,16 +4897,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -4920,16 +4920,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -4943,16 +4943,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -4966,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -4989,16 +4989,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5012,16 +5012,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -5035,16 +5035,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -5058,16 +5058,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5081,16 +5081,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5104,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5127,16 +5127,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5150,16 +5150,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5173,16 +5173,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5196,16 +5196,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5219,16 +5219,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5242,16 +5242,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -5265,16 +5265,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -5288,16 +5288,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -5311,16 +5311,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -5334,16 +5334,16 @@
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -5357,16 +5357,16 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -5380,16 +5380,16 @@
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -5403,16 +5403,16 @@
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -5426,16 +5426,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -5472,16 +5472,16 @@
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -5495,16 +5495,16 @@
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -5518,16 +5518,16 @@
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -5541,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -5564,16 +5564,16 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -5587,16 +5587,16 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -5610,16 +5610,16 @@
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -5633,16 +5633,16 @@
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -5656,16 +5656,16 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -5679,16 +5679,16 @@
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -5702,16 +5702,16 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -5725,16 +5725,16 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -5748,16 +5748,16 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -5771,16 +5771,16 @@
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -5794,16 +5794,16 @@
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -5817,16 +5817,16 @@
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -5840,16 +5840,16 @@
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -5863,16 +5863,16 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -5886,16 +5886,16 @@
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -5909,16 +5909,16 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -5932,16 +5932,16 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -5955,16 +5955,16 @@
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -5978,16 +5978,16 @@
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -6001,16 +6001,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -6024,16 +6024,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -6047,16 +6047,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -6070,16 +6070,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -6093,16 +6093,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -6116,16 +6116,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -6139,16 +6139,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -6162,16 +6162,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -6185,16 +6185,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -6208,16 +6208,16 @@
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -6231,16 +6231,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -6254,16 +6254,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -6277,16 +6277,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -6300,16 +6300,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -6323,16 +6323,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -6345,17 +6345,17 @@
       <c r="C197">
         <v>1</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>351</v>
+      <c r="D197" s="2">
+        <v>11</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -6368,17 +6368,17 @@
       <c r="C198">
         <v>1</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>351</v>
+      <c r="D198" s="2">
+        <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -6392,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -6415,16 +6415,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -6438,16 +6438,16 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -6455,22 +6455,22 @@
         <v>208</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -6484,16 +6484,16 @@
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -6507,16 +6507,16 @@
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -6530,16 +6530,16 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -6553,16 +6553,16 @@
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -6576,16 +6576,16 @@
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -6599,16 +6599,16 @@
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -6622,16 +6622,16 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -6645,16 +6645,16 @@
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -6667,17 +6667,17 @@
       <c r="C211">
         <v>1</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>351</v>
+      <c r="D211" s="2">
+        <v>11</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -6691,16 +6691,16 @@
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -6714,16 +6714,16 @@
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -6737,16 +6737,16 @@
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -6760,16 +6760,16 @@
         <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -6783,16 +6783,16 @@
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -6806,16 +6806,16 @@
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -6829,16 +6829,16 @@
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -6852,16 +6852,16 @@
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -6875,16 +6875,16 @@
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -6898,16 +6898,16 @@
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -6921,16 +6921,16 @@
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -6944,16 +6944,16 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -6967,16 +6967,16 @@
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -6990,16 +6990,16 @@
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -7013,16 +7013,16 @@
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -7036,16 +7036,16 @@
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -7059,16 +7059,16 @@
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -7082,16 +7082,16 @@
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -7105,16 +7105,16 @@
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -7128,16 +7128,16 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -7151,16 +7151,16 @@
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -7174,16 +7174,16 @@
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -7197,16 +7197,16 @@
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -7220,16 +7220,16 @@
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -7243,16 +7243,16 @@
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7266,16 +7266,16 @@
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -7289,16 +7289,16 @@
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -7312,16 +7312,16 @@
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -7335,16 +7335,16 @@
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -7358,16 +7358,16 @@
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -7381,16 +7381,16 @@
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -7404,16 +7404,16 @@
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -7427,16 +7427,16 @@
         <v>1</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -7450,16 +7450,16 @@
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -7473,16 +7473,16 @@
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>252</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -7495,17 +7495,17 @@
       <c r="C247">
         <v>1</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>351</v>
+      <c r="D247" s="2">
+        <v>11</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7519,16 +7519,16 @@
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>254</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7542,16 +7542,16 @@
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -7565,16 +7565,16 @@
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>256</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -7588,16 +7588,16 @@
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -7611,16 +7611,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>258</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -7634,16 +7634,16 @@
         <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -7657,16 +7657,16 @@
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>260</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -7680,16 +7680,16 @@
         <v>1</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -7703,16 +7703,16 @@
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>262</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -7726,16 +7726,16 @@
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -7749,16 +7749,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -7772,16 +7772,16 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>265</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -7795,16 +7795,16 @@
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -7818,16 +7818,16 @@
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -7841,16 +7841,16 @@
         <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -7864,16 +7864,16 @@
         <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>269</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -7887,16 +7887,16 @@
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -7910,16 +7910,16 @@
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -7933,16 +7933,16 @@
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -7956,16 +7956,16 @@
         <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -7979,16 +7979,16 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>274</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -8002,16 +8002,16 @@
         <v>1</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -8024,17 +8024,17 @@
       <c r="C270">
         <v>1</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>351</v>
+      <c r="D270" s="2">
+        <v>11</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -8047,17 +8047,17 @@
       <c r="C271">
         <v>1</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>351</v>
+      <c r="D271" s="2">
+        <v>11</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -8071,16 +8071,16 @@
         <v>1</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -8094,16 +8094,16 @@
         <v>1</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -8117,16 +8117,16 @@
         <v>1</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -8134,22 +8134,22 @@
         <v>281</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -8157,22 +8157,22 @@
         <v>282</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -8180,22 +8180,22 @@
         <v>283</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>283</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -8203,22 +8203,22 @@
         <v>284</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -8226,22 +8226,22 @@
         <v>285</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -8255,16 +8255,16 @@
         <v>1</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -8278,16 +8278,16 @@
         <v>1</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -8301,16 +8301,16 @@
         <v>1</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -8324,16 +8324,16 @@
         <v>1</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -8347,16 +8347,16 @@
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -8370,16 +8370,16 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -8393,16 +8393,16 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -8416,16 +8416,16 @@
         <v>1</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>293</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -8439,16 +8439,16 @@
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -8462,16 +8462,16 @@
         <v>1</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -8484,17 +8484,17 @@
       <c r="C290">
         <v>1</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>351</v>
+      <c r="D290" s="2">
+        <v>11</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -8508,16 +8508,16 @@
         <v>1</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>297</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -8531,16 +8531,16 @@
         <v>1</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -8554,16 +8554,16 @@
         <v>1</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -8577,16 +8577,16 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -8600,16 +8600,16 @@
         <v>1</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -8623,16 +8623,16 @@
         <v>1</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -8646,16 +8646,16 @@
         <v>1</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -8669,16 +8669,16 @@
         <v>1</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -8692,16 +8692,16 @@
         <v>1</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>305</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -8715,16 +8715,16 @@
         <v>1</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -8738,16 +8738,16 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -8761,16 +8761,16 @@
         <v>1</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -8784,16 +8784,16 @@
         <v>1</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -8807,16 +8807,16 @@
         <v>1</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
@@ -8830,16 +8830,16 @@
         <v>1</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
@@ -8853,16 +8853,16 @@
         <v>1</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
@@ -8876,16 +8876,16 @@
         <v>1</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -8899,16 +8899,16 @@
         <v>1</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
@@ -8922,16 +8922,16 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -8945,16 +8945,16 @@
         <v>1</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
@@ -8968,16 +8968,16 @@
         <v>1</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>317</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
@@ -8991,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
@@ -9014,16 +9014,16 @@
         <v>1</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>319</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
@@ -9060,16 +9060,16 @@
         <v>1</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis/developer_states.xlsx
+++ b/Thesis/developer_states.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="214" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649E1524-1684-45AB-AC93-495F54A48BA6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29B94B-9539-40D3-B7DF-08904E974596}">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="H314" sqref="H314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Thesis/developer_states.xlsx
+++ b/Thesis/developer_states.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649E1524-1684-45AB-AC93-495F54A48BA6}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692AB4A5-3718-42C2-8877-C8562F32C089}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$312</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="449">
   <si>
     <t>unique_id</t>
   </si>
@@ -251,9 +254,6 @@
     <t>AF1-314</t>
   </si>
   <si>
-    <t>AF2-201</t>
-  </si>
-  <si>
     <t>AG1-005</t>
   </si>
   <si>
@@ -347,12 +347,6 @@
     <t>AG1-525</t>
   </si>
   <si>
-    <t>AF1-088</t>
-  </si>
-  <si>
-    <t>AF2-008</t>
-  </si>
-  <si>
     <t>AF1-204</t>
   </si>
   <si>
@@ -1088,9 +1082,6 @@
     <t>175.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>255.0</t>
   </si>
   <si>
@@ -1133,9 +1124,6 @@
     <t>800.0</t>
   </si>
   <si>
-    <t>1000.0</t>
-  </si>
-  <si>
     <t>54.0</t>
   </si>
   <si>
@@ -1398,12 +1386,6 @@
   </si>
   <si>
     <t>developer</t>
-  </si>
-  <si>
-    <t>hybrid</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1475,6 +1457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1813,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29B94B-9539-40D3-B7DF-08904E974596}">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1824,6 +1813,7 @@
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="5"/>
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,17 +1827,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1860,17 +1850,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>322</v>
+      <c r="D2" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1883,17 +1873,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>323</v>
+      <c r="D3" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1901,22 +1891,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>324</v>
+      <c r="D4" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1924,22 +1914,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>324</v>
+      <c r="D5" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1952,17 +1942,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>325</v>
+      <c r="D6" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1975,17 +1965,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>326</v>
+      <c r="D7" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1998,17 +1988,17 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>327</v>
+      <c r="D8" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2021,17 +2011,17 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>328</v>
+      <c r="D9" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2044,17 +2034,17 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>329</v>
+      <c r="D10" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2067,17 +2057,17 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>330</v>
+      <c r="D11" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2090,17 +2080,17 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>331</v>
+      <c r="D12" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2113,17 +2103,17 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>332</v>
+      <c r="D13" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2136,17 +2126,17 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>333</v>
+      <c r="D14" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2159,17 +2149,17 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>334</v>
+      <c r="D15" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2182,17 +2172,17 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>335</v>
+      <c r="D16" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2205,17 +2195,17 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>336</v>
+      <c r="D17" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2228,17 +2218,17 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>337</v>
+      <c r="D18" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2251,17 +2241,17 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>338</v>
+      <c r="D19" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2274,17 +2264,17 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>338</v>
+      <c r="D20" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2297,17 +2287,17 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>339</v>
+      <c r="D21" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2320,17 +2310,17 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>335</v>
+      <c r="D22" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2343,17 +2333,17 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>340</v>
+      <c r="D23" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2366,17 +2356,17 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>341</v>
+      <c r="D24" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2389,17 +2379,17 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>342</v>
+      <c r="D25" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2412,17 +2402,17 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>343</v>
+      <c r="D26" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2435,17 +2425,17 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>344</v>
+      <c r="D27" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2458,17 +2448,17 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>343</v>
+      <c r="D28" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2481,17 +2471,17 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>330</v>
+      <c r="D29" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2504,17 +2494,17 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>342</v>
+      <c r="D30" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2527,17 +2517,17 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>345</v>
+      <c r="D31" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2550,17 +2540,17 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>330</v>
+      <c r="D32" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2573,17 +2563,17 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>330</v>
+      <c r="D33" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2596,17 +2586,17 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>346</v>
+      <c r="D34" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2619,17 +2609,17 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>346</v>
+      <c r="D35" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2642,17 +2632,17 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>338</v>
+      <c r="D36" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2665,17 +2655,17 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>347</v>
+      <c r="D37" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2688,17 +2678,17 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>348</v>
+      <c r="D38" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2711,17 +2701,17 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>342</v>
+      <c r="D39" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2734,17 +2724,17 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>335</v>
+      <c r="D40" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2757,17 +2747,17 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>338</v>
+      <c r="D41" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2780,17 +2770,17 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>335</v>
+      <c r="D42" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2803,17 +2793,17 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>343</v>
+      <c r="D43" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2826,17 +2816,17 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>349</v>
+      <c r="D44" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2849,17 +2839,17 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2872,17 +2862,17 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2895,17 +2885,17 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>335</v>
+      <c r="D47" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2918,17 +2908,17 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>351</v>
+      <c r="D48" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2941,17 +2931,17 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>352</v>
+      <c r="D49" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2964,17 +2954,17 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>353</v>
+      <c r="D50" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2987,17 +2977,17 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>342</v>
+      <c r="D51" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3010,17 +3000,17 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>338</v>
+      <c r="D52" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3033,17 +3023,17 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>330</v>
+      <c r="D53" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3056,17 +3046,17 @@
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>330</v>
+      <c r="D54" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3079,17 +3069,17 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>346</v>
+      <c r="D55" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3102,17 +3092,17 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>338</v>
+      <c r="D56" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3125,17 +3115,17 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>338</v>
+      <c r="D57" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3148,17 +3138,17 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>330</v>
+      <c r="D58" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3171,17 +3161,17 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>330</v>
+      <c r="D59" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3194,17 +3184,17 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>342</v>
+      <c r="D60" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3217,17 +3207,17 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>330</v>
+      <c r="D61" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3240,17 +3230,17 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>354</v>
+      <c r="D62" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3263,17 +3253,17 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>355</v>
+      <c r="D63" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3286,17 +3276,17 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>356</v>
+      <c r="D64" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3304,22 +3294,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>454</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>348</v>
+      <c r="D65" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3332,17 +3322,17 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>335</v>
+      <c r="D66" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3350,22 +3340,22 @@
         <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>351</v>
+      <c r="D67" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3373,22 +3363,22 @@
         <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>357</v>
+      <c r="D68" s="3">
+        <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3396,22 +3386,22 @@
         <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="2">
-        <v>11</v>
+      <c r="D69" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3424,17 +3414,17 @@
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>338</v>
+      <c r="D70" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3447,17 +3437,17 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>335</v>
+      <c r="D71" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -3470,17 +3460,17 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>358</v>
+      <c r="D72" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -3488,22 +3478,22 @@
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>342</v>
+      <c r="D73" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -3511,22 +3501,22 @@
         <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>342</v>
+      <c r="D74" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -3539,17 +3529,17 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>342</v>
+      <c r="D75" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3557,22 +3547,22 @@
         <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>330</v>
+      <c r="D76" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -3585,17 +3575,17 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>335</v>
+      <c r="D77" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3603,22 +3593,22 @@
         <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>335</v>
+      <c r="D78" s="3">
+        <v>200</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3626,22 +3616,22 @@
         <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>350</v>
+      <c r="D79" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -3654,17 +3644,17 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>342</v>
+      <c r="D80" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3677,17 +3667,17 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>359</v>
+      <c r="D81" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -3700,17 +3690,17 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>342</v>
+      <c r="D82" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -3723,17 +3713,17 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>360</v>
+      <c r="D83" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -3746,17 +3736,17 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>361</v>
+      <c r="D84" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -3764,22 +3754,22 @@
         <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>352</v>
+      <c r="D85" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -3787,22 +3777,22 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>362</v>
+      <c r="D86" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -3810,22 +3800,22 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>363</v>
+      <c r="D87" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -3833,22 +3823,22 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>338</v>
+      <c r="D88" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3856,22 +3846,22 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>359</v>
+      <c r="D89" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3884,17 +3874,17 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>346</v>
+      <c r="D90" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3902,22 +3892,22 @@
         <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>338</v>
+      <c r="D91" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3925,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>364</v>
+      <c r="D92" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -3953,17 +3943,17 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>338</v>
+      <c r="D93" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3976,17 +3966,17 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>338</v>
+      <c r="D94" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3999,17 +3989,17 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>338</v>
+      <c r="D95" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4017,22 +4007,22 @@
         <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>338</v>
+      <c r="D96" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4040,22 +4030,22 @@
         <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>455</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>365</v>
+      <c r="D97" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4063,22 +4053,22 @@
         <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>455</v>
+        <v>6</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>365</v>
+      <c r="D98" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4086,22 +4076,22 @@
         <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>351</v>
+      <c r="D99" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4109,22 +4099,22 @@
         <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>366</v>
+      <c r="D100" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4132,22 +4122,22 @@
         <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>367</v>
+      <c r="D101" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4155,22 +4145,22 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>342</v>
+      <c r="D102" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4183,17 +4173,17 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>336</v>
+      <c r="D103" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4201,22 +4191,22 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>335</v>
+      <c r="D104" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4224,22 +4214,22 @@
         <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>338</v>
+      <c r="D105" s="3">
+        <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4247,22 +4237,22 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>346</v>
+      <c r="D106" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4270,22 +4260,22 @@
         <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>353</v>
+      <c r="D107" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4298,17 +4288,17 @@
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108" s="2">
-        <v>11</v>
+      <c r="D108" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4316,22 +4306,22 @@
         <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>342</v>
+      <c r="D109" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -4344,17 +4334,17 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>342</v>
+      <c r="D110" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4362,22 +4352,22 @@
         <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>368</v>
+      <c r="D111" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -4390,17 +4380,17 @@
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>368</v>
+      <c r="D112" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -4413,17 +4403,17 @@
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>347</v>
+      <c r="D113" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -4436,17 +4426,17 @@
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>369</v>
+      <c r="D114" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -4454,22 +4444,22 @@
         <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>347</v>
+      <c r="D115" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -4477,22 +4467,22 @@
         <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>370</v>
+      <c r="D116" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -4505,17 +4495,17 @@
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>371</v>
+      <c r="D117" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -4523,22 +4513,22 @@
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>343</v>
+      <c r="D118" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -4546,22 +4536,22 @@
         <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>343</v>
+      <c r="D119" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4574,17 +4564,17 @@
       <c r="C120">
         <v>1</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>371</v>
+      <c r="D120" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -4597,17 +4587,17 @@
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>372</v>
+      <c r="D121" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -4620,17 +4610,17 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>373</v>
+      <c r="D122" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -4643,17 +4633,17 @@
       <c r="C123">
         <v>1</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>374</v>
+      <c r="D123" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -4666,17 +4656,17 @@
       <c r="C124">
         <v>1</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>346</v>
+      <c r="D124" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -4684,22 +4674,22 @@
         <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>330</v>
+      <c r="D125" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -4707,22 +4697,22 @@
         <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>375</v>
+      <c r="D126" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -4730,22 +4720,22 @@
         <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>330</v>
+      <c r="D127" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -4758,17 +4748,17 @@
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>343</v>
+      <c r="D128" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -4776,22 +4766,22 @@
         <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>376</v>
+      <c r="D129" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -4804,17 +4794,17 @@
       <c r="C130">
         <v>1</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>346</v>
+      <c r="D130" s="3">
+        <v>11</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -4822,22 +4812,22 @@
         <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>343</v>
+      <c r="D131" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -4845,22 +4835,22 @@
         <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>359</v>
+      <c r="D132" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -4868,22 +4858,22 @@
         <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="D133" s="2">
-        <v>11</v>
+      <c r="D133" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -4896,17 +4886,17 @@
       <c r="C134">
         <v>1</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>377</v>
+      <c r="D134" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -4919,8 +4909,8 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>331</v>
+      <c r="D135" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>141</v>
@@ -4929,7 +4919,7 @@
         <v>439</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -4937,22 +4927,22 @@
         <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>326</v>
+      <c r="D136" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -4965,17 +4955,17 @@
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>346</v>
+      <c r="D137" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -4983,22 +4973,22 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>338</v>
+      <c r="D138" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5006,22 +4996,22 @@
         <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>346</v>
+      <c r="D139" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -5029,22 +5019,22 @@
         <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>378</v>
+      <c r="D140" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -5057,17 +5047,17 @@
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>379</v>
+      <c r="D141" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5080,8 +5070,8 @@
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>338</v>
+      <c r="D142" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>148</v>
@@ -5090,7 +5080,7 @@
         <v>439</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5098,22 +5088,22 @@
         <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>342</v>
+      <c r="D143" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5126,17 +5116,17 @@
       <c r="C144">
         <v>1</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>380</v>
+      <c r="D144" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5144,22 +5134,22 @@
         <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>381</v>
+      <c r="D145" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5167,22 +5157,22 @@
         <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>342</v>
+      <c r="D146" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5195,17 +5185,17 @@
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>382</v>
+      <c r="D147" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5213,22 +5203,22 @@
         <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>369</v>
+      <c r="D148" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5236,22 +5226,22 @@
         <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>346</v>
+      <c r="D149" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -5264,17 +5254,17 @@
       <c r="C150">
         <v>1</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>343</v>
+      <c r="D150" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -5287,17 +5277,17 @@
       <c r="C151">
         <v>1</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>343</v>
+      <c r="D151" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -5310,17 +5300,17 @@
       <c r="C152">
         <v>1</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>383</v>
+      <c r="D152" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -5328,22 +5318,22 @@
         <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>384</v>
+      <c r="D153" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -5351,22 +5341,22 @@
         <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>343</v>
+      <c r="D154" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -5374,22 +5364,22 @@
         <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>385</v>
+      <c r="D155" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -5397,22 +5387,22 @@
         <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>370</v>
+      <c r="D156" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -5425,17 +5415,17 @@
       <c r="C157">
         <v>1</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>386</v>
+      <c r="D157" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -5443,22 +5433,22 @@
         <v>164</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>387</v>
+      <c r="D158" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -5466,22 +5456,22 @@
         <v>165</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>388</v>
+      <c r="D159" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -5494,17 +5484,17 @@
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>330</v>
+      <c r="D160" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -5517,17 +5507,17 @@
       <c r="C161">
         <v>1</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>389</v>
+      <c r="D161" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -5535,22 +5525,22 @@
         <v>168</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>326</v>
+      <c r="D162" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -5558,22 +5548,22 @@
         <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>343</v>
+      <c r="D163" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -5581,22 +5571,22 @@
         <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>343</v>
+      <c r="D164" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -5604,22 +5594,22 @@
         <v>171</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>343</v>
+      <c r="D165" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -5632,17 +5622,17 @@
       <c r="C166">
         <v>1</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>325</v>
+      <c r="D166" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -5655,17 +5645,17 @@
       <c r="C167">
         <v>1</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>342</v>
+      <c r="D167" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -5678,17 +5668,17 @@
       <c r="C168">
         <v>1</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>342</v>
+      <c r="D168" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -5701,17 +5691,17 @@
       <c r="C169">
         <v>1</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>390</v>
+      <c r="D169" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -5724,17 +5714,17 @@
       <c r="C170">
         <v>1</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>390</v>
+      <c r="D170" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -5747,17 +5737,17 @@
       <c r="C171">
         <v>1</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>331</v>
+      <c r="D171" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -5770,17 +5760,17 @@
       <c r="C172">
         <v>1</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>331</v>
+      <c r="D172" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -5788,22 +5778,22 @@
         <v>179</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>391</v>
+      <c r="D173" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -5816,17 +5806,17 @@
       <c r="C174">
         <v>1</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>346</v>
+      <c r="D174" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -5839,17 +5829,17 @@
       <c r="C175">
         <v>1</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>325</v>
+      <c r="D175" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -5857,22 +5847,22 @@
         <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>342</v>
+      <c r="D176" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -5885,17 +5875,17 @@
       <c r="C177">
         <v>1</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>347</v>
+      <c r="D177" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -5908,17 +5898,17 @@
       <c r="C178">
         <v>1</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>343</v>
+      <c r="D178" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -5931,17 +5921,17 @@
       <c r="C179">
         <v>1</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>362</v>
+      <c r="D179" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -5954,17 +5944,17 @@
       <c r="C180">
         <v>1</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>343</v>
+      <c r="D180" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -5977,17 +5967,17 @@
       <c r="C181">
         <v>1</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>343</v>
+      <c r="D181" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -5995,22 +5985,22 @@
         <v>188</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>392</v>
+      <c r="D182" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -6018,22 +6008,22 @@
         <v>189</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>367</v>
+      <c r="D183" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -6041,22 +6031,22 @@
         <v>190</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>377</v>
+      <c r="D184" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -6064,22 +6054,22 @@
         <v>191</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>346</v>
+      <c r="D185" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -6087,22 +6077,22 @@
         <v>192</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>369</v>
+      <c r="D186" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -6110,22 +6100,22 @@
         <v>193</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>330</v>
+      <c r="D187" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -6133,22 +6123,22 @@
         <v>194</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>330</v>
+      <c r="D188" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -6161,17 +6151,17 @@
       <c r="C189">
         <v>1</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>335</v>
+      <c r="D189" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -6179,22 +6169,22 @@
         <v>196</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>346</v>
+      <c r="D190" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -6202,22 +6192,22 @@
         <v>197</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>393</v>
+      <c r="D191" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -6225,22 +6215,22 @@
         <v>198</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>330</v>
+      <c r="D192" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -6253,17 +6243,17 @@
       <c r="C193">
         <v>1</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>330</v>
+      <c r="D193" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -6276,17 +6266,17 @@
       <c r="C194">
         <v>1</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>369</v>
+      <c r="D194" s="3">
+        <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -6299,17 +6289,17 @@
       <c r="C195">
         <v>1</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>343</v>
+      <c r="D195" s="3">
+        <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -6322,17 +6312,17 @@
       <c r="C196">
         <v>1</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>335</v>
+      <c r="D196" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -6340,22 +6330,22 @@
         <v>203</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
-      <c r="D197" s="2">
-        <v>11</v>
+      <c r="D197" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -6363,22 +6353,22 @@
         <v>204</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
-      <c r="D198" s="2">
-        <v>11</v>
+      <c r="D198" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -6386,22 +6376,22 @@
         <v>205</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>394</v>
+      <c r="D199" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -6409,22 +6399,22 @@
         <v>206</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>395</v>
+      <c r="D200" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -6432,22 +6422,22 @@
         <v>207</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>325</v>
+      <c r="D201" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -6455,22 +6445,22 @@
         <v>208</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>396</v>
+      <c r="D202" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -6483,17 +6473,17 @@
       <c r="C203">
         <v>1</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>369</v>
+      <c r="D203" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -6501,22 +6491,22 @@
         <v>210</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>397</v>
+      <c r="D204" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -6529,17 +6519,17 @@
       <c r="C205">
         <v>1</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>398</v>
+      <c r="D205" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -6547,22 +6537,22 @@
         <v>212</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>399</v>
+      <c r="D206" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -6570,22 +6560,22 @@
         <v>213</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>343</v>
+      <c r="D207" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -6593,22 +6583,22 @@
         <v>214</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>375</v>
+      <c r="D208" s="3">
+        <v>11</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -6621,17 +6611,17 @@
       <c r="C209">
         <v>1</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>400</v>
+      <c r="D209" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -6639,22 +6629,22 @@
         <v>216</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>401</v>
+      <c r="D210" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -6662,22 +6652,22 @@
         <v>217</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
-      <c r="D211" s="2">
-        <v>11</v>
+      <c r="D211" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -6685,22 +6675,22 @@
         <v>218</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>330</v>
+      <c r="D212" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -6713,17 +6703,17 @@
       <c r="C213">
         <v>1</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>402</v>
+      <c r="D213" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -6736,17 +6726,17 @@
       <c r="C214">
         <v>1</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>373</v>
+      <c r="D214" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -6754,22 +6744,22 @@
         <v>221</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>369</v>
+      <c r="D215" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -6782,17 +6772,17 @@
       <c r="C216">
         <v>1</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>330</v>
+      <c r="D216" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -6805,17 +6795,17 @@
       <c r="C217">
         <v>1</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>340</v>
+      <c r="D217" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -6828,17 +6818,17 @@
       <c r="C218">
         <v>1</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>403</v>
+      <c r="D218" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -6851,17 +6841,17 @@
       <c r="C219">
         <v>1</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>347</v>
+      <c r="D219" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -6869,22 +6859,22 @@
         <v>226</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>336</v>
+      <c r="D220" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -6897,17 +6887,17 @@
       <c r="C221">
         <v>1</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>404</v>
+      <c r="D221" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -6920,17 +6910,17 @@
       <c r="C222">
         <v>1</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>366</v>
+      <c r="D222" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -6938,22 +6928,22 @@
         <v>229</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>342</v>
+      <c r="D223" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -6966,17 +6956,17 @@
       <c r="C224">
         <v>1</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>342</v>
+      <c r="D224" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -6989,17 +6979,17 @@
       <c r="C225">
         <v>1</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>331</v>
+      <c r="D225" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -7012,17 +7002,17 @@
       <c r="C226">
         <v>1</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>375</v>
+      <c r="D226" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -7035,17 +7025,17 @@
       <c r="C227">
         <v>1</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>405</v>
+      <c r="D227" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -7053,22 +7043,22 @@
         <v>234</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>406</v>
+      <c r="D228" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -7081,17 +7071,17 @@
       <c r="C229">
         <v>1</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>330</v>
+      <c r="D229" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -7104,17 +7094,17 @@
       <c r="C230">
         <v>1</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>407</v>
+      <c r="D230" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -7122,22 +7112,22 @@
         <v>237</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>343</v>
+      <c r="D231" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -7150,17 +7140,17 @@
       <c r="C232">
         <v>1</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>340</v>
+      <c r="D232" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -7173,17 +7163,17 @@
       <c r="C233">
         <v>1</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>408</v>
+      <c r="D233" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -7191,22 +7181,22 @@
         <v>240</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>409</v>
+      <c r="D234" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -7214,22 +7204,22 @@
         <v>241</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>369</v>
+      <c r="D235" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -7242,17 +7232,17 @@
       <c r="C236">
         <v>1</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>369</v>
+      <c r="D236" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7260,22 +7250,22 @@
         <v>243</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>410</v>
+      <c r="D237" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -7283,22 +7273,22 @@
         <v>244</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>410</v>
+      <c r="D238" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -7311,17 +7301,17 @@
       <c r="C239">
         <v>1</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>340</v>
+      <c r="D239" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -7334,17 +7324,17 @@
       <c r="C240">
         <v>1</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>330</v>
+      <c r="D240" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -7357,17 +7347,17 @@
       <c r="C241">
         <v>1</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>343</v>
+      <c r="D241" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -7380,17 +7370,17 @@
       <c r="C242">
         <v>1</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>390</v>
+      <c r="D242" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -7403,17 +7393,17 @@
       <c r="C243">
         <v>1</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>390</v>
+      <c r="D243" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -7421,22 +7411,22 @@
         <v>250</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>390</v>
+      <c r="D244" s="3">
+        <v>11</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -7444,22 +7434,22 @@
         <v>251</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>411</v>
+      <c r="D245" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -7467,22 +7457,22 @@
         <v>252</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>330</v>
+      <c r="D246" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>252</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -7490,22 +7480,22 @@
         <v>253</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
-      <c r="D247" s="2">
-        <v>11</v>
+      <c r="D247" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7513,22 +7503,22 @@
         <v>254</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>347</v>
+      <c r="D248" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>254</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7536,22 +7526,22 @@
         <v>255</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>343</v>
+      <c r="D249" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -7559,22 +7549,22 @@
         <v>256</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>325</v>
+      <c r="D250" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>256</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -7587,17 +7577,17 @@
       <c r="C251">
         <v>1</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>412</v>
+      <c r="D251" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -7610,17 +7600,17 @@
       <c r="C252">
         <v>1</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>369</v>
+      <c r="D252" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>258</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -7628,22 +7618,22 @@
         <v>259</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>346</v>
+      <c r="D253" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -7656,17 +7646,17 @@
       <c r="C254">
         <v>1</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>330</v>
+      <c r="D254" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>260</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -7679,17 +7669,17 @@
       <c r="C255">
         <v>1</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>369</v>
+      <c r="D255" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -7697,22 +7687,22 @@
         <v>262</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>413</v>
+      <c r="D256" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>262</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -7725,17 +7715,17 @@
       <c r="C257">
         <v>1</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>325</v>
+      <c r="D257" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -7743,22 +7733,22 @@
         <v>264</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>342</v>
+      <c r="D258" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -7766,22 +7756,22 @@
         <v>265</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>342</v>
+      <c r="D259" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>265</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -7794,17 +7784,17 @@
       <c r="C260">
         <v>1</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>343</v>
+      <c r="D260" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -7812,22 +7802,22 @@
         <v>267</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>414</v>
+      <c r="D261" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -7840,17 +7830,17 @@
       <c r="C262">
         <v>1</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>415</v>
+      <c r="D262" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -7863,17 +7853,17 @@
       <c r="C263">
         <v>1</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>416</v>
+      <c r="D263" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>269</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -7881,22 +7871,22 @@
         <v>270</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>417</v>
+      <c r="D264" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -7909,17 +7899,17 @@
       <c r="C265">
         <v>1</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>343</v>
+      <c r="D265" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -7932,17 +7922,17 @@
       <c r="C266">
         <v>1</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>330</v>
+      <c r="D266" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -7950,22 +7940,22 @@
         <v>273</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>330</v>
+      <c r="D267" s="3">
+        <v>11</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -7973,22 +7963,22 @@
         <v>274</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>336</v>
+      <c r="D268" s="3">
+        <v>11</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>274</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -7996,22 +7986,22 @@
         <v>275</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>346</v>
+      <c r="D269" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -8024,17 +8014,17 @@
       <c r="C270">
         <v>1</v>
       </c>
-      <c r="D270" s="2">
-        <v>11</v>
+      <c r="D270" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -8047,17 +8037,17 @@
       <c r="C271">
         <v>1</v>
       </c>
-      <c r="D271" s="2">
-        <v>11</v>
+      <c r="D271" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -8065,22 +8055,22 @@
         <v>278</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>418</v>
+      <c r="D272" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -8088,22 +8078,22 @@
         <v>279</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>342</v>
+      <c r="D273" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -8111,22 +8101,22 @@
         <v>280</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>342</v>
+      <c r="D274" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -8134,22 +8124,22 @@
         <v>281</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>419</v>
+      <c r="D275" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -8157,22 +8147,22 @@
         <v>282</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>420</v>
+      <c r="D276" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -8180,22 +8170,22 @@
         <v>283</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>434</v>
+        <v>5</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>421</v>
+      <c r="D277" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>283</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -8203,22 +8193,22 @@
         <v>284</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>434</v>
+        <v>5</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
-      <c r="D278" s="2" t="s">
-        <v>422</v>
+      <c r="D278" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -8226,22 +8216,22 @@
         <v>285</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>422</v>
+      <c r="D279" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -8249,22 +8239,22 @@
         <v>286</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>369</v>
+      <c r="D280" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -8272,22 +8262,22 @@
         <v>287</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>423</v>
+      <c r="D281" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -8300,17 +8290,17 @@
       <c r="C282">
         <v>1</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>355</v>
+      <c r="D282" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -8318,22 +8308,22 @@
         <v>289</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -8341,22 +8331,22 @@
         <v>290</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>370</v>
+      <c r="D284" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -8364,22 +8354,22 @@
         <v>291</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>424</v>
+      <c r="D285" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -8387,22 +8377,22 @@
         <v>292</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>343</v>
+      <c r="D286" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -8410,22 +8400,22 @@
         <v>293</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>343</v>
+      <c r="D287" s="3">
+        <v>11</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>293</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -8433,22 +8423,22 @@
         <v>294</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>343</v>
+      <c r="D288" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -8456,22 +8446,22 @@
         <v>295</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>363</v>
+      <c r="D289" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -8479,13 +8469,13 @@
         <v>296</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
-      <c r="D290" s="2">
-        <v>11</v>
+      <c r="D290" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>296</v>
@@ -8494,7 +8484,7 @@
         <v>442</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -8507,17 +8497,17 @@
       <c r="C291">
         <v>1</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>330</v>
+      <c r="D291" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>297</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -8525,22 +8515,22 @@
         <v>298</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>343</v>
+      <c r="D292" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -8553,17 +8543,17 @@
       <c r="C293">
         <v>1</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>347</v>
+      <c r="D293" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -8571,22 +8561,22 @@
         <v>300</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>425</v>
+      <c r="D294" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -8594,22 +8584,22 @@
         <v>301</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>426</v>
+      <c r="D295" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -8617,22 +8607,22 @@
         <v>302</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>362</v>
+      <c r="D296" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -8640,22 +8630,22 @@
         <v>303</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>346</v>
+      <c r="D297" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -8663,22 +8653,22 @@
         <v>304</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>335</v>
+      <c r="D298" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -8686,22 +8676,22 @@
         <v>305</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>427</v>
+      <c r="D299" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>305</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -8714,17 +8704,17 @@
       <c r="C300">
         <v>1</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>377</v>
+      <c r="D300" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -8737,17 +8727,17 @@
       <c r="C301">
         <v>1</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>340</v>
+      <c r="D301" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -8760,17 +8750,17 @@
       <c r="C302">
         <v>1</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>342</v>
+      <c r="D302" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -8783,17 +8773,17 @@
       <c r="C303">
         <v>1</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>370</v>
+      <c r="D303" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -8806,17 +8796,17 @@
       <c r="C304">
         <v>1</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>428</v>
+      <c r="D304" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
@@ -8824,22 +8814,22 @@
         <v>311</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>429</v>
+      <c r="D305" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
@@ -8852,17 +8842,17 @@
       <c r="C306">
         <v>1</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>330</v>
+      <c r="D306" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
@@ -8875,17 +8865,17 @@
       <c r="C307">
         <v>1</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>346</v>
+      <c r="D307" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -8893,22 +8883,22 @@
         <v>314</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>322</v>
+      <c r="D308" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
@@ -8916,22 +8906,22 @@
         <v>315</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>430</v>
+      <c r="D309" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -8944,17 +8934,17 @@
       <c r="C310">
         <v>1</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>375</v>
+      <c r="D310" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
@@ -8967,17 +8957,17 @@
       <c r="C311">
         <v>1</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>431</v>
+      <c r="D311" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>317</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
@@ -8985,94 +8975,26 @@
         <v>318</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>432</v>
+      <c r="D312" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A313" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A314" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A315" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B312" xr:uid="{CB29B94B-9539-40D3-B7DF-08904E974596}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thesis/developer_states.xlsx
+++ b/Thesis/developer_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/abigail_weeks_rmi_org/Documents/Documents/GitHub/Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692AB4A5-3718-42C2-8877-C8562F32C089}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{A4B64DE1-C1F9-4DF8-A805-E80C52345F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB0A0579-2F43-4F02-A61D-396F018F607F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{31558D2F-F994-4500-BC80-1C41F5323AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29B94B-9539-40D3-B7DF-08904E974596}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1848,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>319</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>320</v>
@@ -1894,7 +1894,7 @@
         <v>429</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>321</v>
@@ -1917,7 +1917,7 @@
         <v>429</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>321</v>
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>322</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>323</v>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>324</v>
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>325</v>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>326</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>327</v>
@@ -2078,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>328</v>
@@ -2101,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>329</v>
@@ -2124,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>330</v>
@@ -2147,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>331</v>
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>332</v>
@@ -2193,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>333</v>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>334</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>335</v>
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>335</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>336</v>
@@ -2308,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>332</v>
@@ -2331,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>337</v>
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>338</v>
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>339</v>
@@ -2400,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>340</v>
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>341</v>
@@ -2446,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>340</v>
@@ -2469,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>327</v>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>339</v>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>342</v>
@@ -2538,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>327</v>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>327</v>
@@ -2584,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>343</v>
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>343</v>
@@ -2630,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>335</v>
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>344</v>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>345</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>339</v>
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>332</v>
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>335</v>
@@ -2768,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>332</v>
@@ -2791,7 +2791,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>340</v>
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>346</v>
@@ -2837,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>11</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3">
         <v>11</v>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>332</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>347</v>
@@ -2929,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>348</v>
@@ -2952,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>349</v>
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>339</v>
@@ -2998,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>335</v>
@@ -3021,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>327</v>
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>327</v>
@@ -3067,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>343</v>
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>335</v>
@@ -3113,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>335</v>
@@ -3136,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>327</v>
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>327</v>
@@ -3182,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>339</v>
@@ -3205,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>327</v>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>350</v>
@@ -3251,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>351</v>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>352</v>
@@ -3297,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>332</v>
@@ -3320,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>347</v>
@@ -3343,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>353</v>
@@ -3366,7 +3366,7 @@
         <v>430</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3">
         <v>11</v>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>335</v>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>332</v>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>354</v>
@@ -3458,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>339</v>
@@ -3481,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>339</v>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>339</v>
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>327</v>
@@ -3550,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>332</v>
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>332</v>
@@ -3596,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="3">
         <v>200</v>
@@ -3619,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>339</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>355</v>
@@ -3665,7 +3665,7 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>339</v>
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>356</v>
@@ -3711,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>357</v>
@@ -3734,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>348</v>
@@ -3757,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>358</v>
@@ -3780,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>359</v>
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>335</v>
@@ -3826,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>355</v>
@@ -3849,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>343</v>
@@ -3872,7 +3872,7 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>335</v>
@@ -3895,7 +3895,7 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>360</v>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>335</v>
@@ -3941,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>335</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>335</v>
@@ -3987,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>335</v>
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>347</v>
@@ -4033,7 +4033,7 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>361</v>
@@ -4056,7 +4056,7 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>362</v>
@@ -4079,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>339</v>
@@ -4102,7 +4102,7 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>333</v>
@@ -4125,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>332</v>
@@ -4148,7 +4148,7 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>335</v>
@@ -4171,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>343</v>
@@ -4194,7 +4194,7 @@
         <v>6</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>349</v>
@@ -4217,7 +4217,7 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D105" s="3">
         <v>11</v>
@@ -4240,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>339</v>
@@ -4263,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>339</v>
@@ -4286,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>363</v>
@@ -4309,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>363</v>
@@ -4332,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>344</v>
@@ -4355,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>364</v>
@@ -4378,7 +4378,7 @@
         <v>6</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>344</v>
@@ -4401,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>365</v>
@@ -4424,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>366</v>
@@ -4447,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>340</v>
@@ -4470,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>340</v>
@@ -4493,7 +4493,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>366</v>
@@ -4516,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>367</v>
@@ -4539,7 +4539,7 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>368</v>
@@ -4562,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>369</v>
@@ -4585,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>343</v>
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>327</v>
@@ -4631,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>370</v>
@@ -4654,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>327</v>
@@ -4677,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>340</v>
@@ -4700,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>371</v>
@@ -4723,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>343</v>
@@ -4746,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>340</v>
@@ -4769,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>355</v>
@@ -4792,7 +4792,7 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130" s="3">
         <v>11</v>
@@ -4815,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>372</v>
@@ -4838,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>328</v>
@@ -4861,7 +4861,7 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>323</v>
@@ -4884,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>343</v>
@@ -4907,7 +4907,7 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>335</v>
@@ -4930,7 +4930,7 @@
         <v>6</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>343</v>
@@ -4953,7 +4953,7 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>373</v>
@@ -4976,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>374</v>
@@ -4999,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>335</v>
@@ -5022,7 +5022,7 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>339</v>
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>375</v>
@@ -5068,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>376</v>
@@ -5091,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>339</v>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>377</v>
@@ -5137,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>364</v>
@@ -5160,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>343</v>
@@ -5183,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>340</v>
@@ -5206,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>340</v>
@@ -5229,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>378</v>
@@ -5252,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>379</v>
@@ -5275,7 +5275,7 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>340</v>
@@ -5298,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>380</v>
@@ -5321,7 +5321,7 @@
         <v>5</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>365</v>
@@ -5344,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>381</v>
@@ -5367,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>382</v>
@@ -5390,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>383</v>
@@ -5413,7 +5413,7 @@
         <v>5</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>327</v>
@@ -5436,7 +5436,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>384</v>
@@ -5459,7 +5459,7 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>323</v>
@@ -5482,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>340</v>
@@ -5505,7 +5505,7 @@
         <v>5</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>340</v>
@@ -5528,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>340</v>
@@ -5551,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>322</v>
@@ -5574,7 +5574,7 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>339</v>
@@ -5597,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>339</v>
@@ -5620,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>385</v>
@@ -5643,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>385</v>
@@ -5666,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>328</v>
@@ -5689,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>328</v>
@@ -5712,7 +5712,7 @@
         <v>4</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>386</v>
@@ -5735,7 +5735,7 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>343</v>
@@ -5758,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>322</v>
@@ -5781,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>339</v>
@@ -5804,7 +5804,7 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>344</v>
@@ -5827,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>340</v>
@@ -5850,7 +5850,7 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>358</v>
@@ -5873,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>340</v>
@@ -5896,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>340</v>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>387</v>
@@ -5942,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>362</v>
@@ -5965,7 +5965,7 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>372</v>
@@ -5988,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>343</v>
@@ -6011,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>364</v>
@@ -6034,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>327</v>
@@ -6057,7 +6057,7 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>327</v>
@@ -6080,7 +6080,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>332</v>
@@ -6103,7 +6103,7 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>343</v>
@@ -6126,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>388</v>
@@ -6149,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>327</v>
@@ -6172,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>327</v>
@@ -6195,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>364</v>
@@ -6218,7 +6218,7 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>340</v>
@@ -6241,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>332</v>
@@ -6264,7 +6264,7 @@
         <v>6</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194" s="3">
         <v>11</v>
@@ -6287,7 +6287,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D195" s="3">
         <v>11</v>
@@ -6310,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>389</v>
@@ -6333,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>390</v>
@@ -6356,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>322</v>
@@ -6379,7 +6379,7 @@
         <v>430</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>391</v>
@@ -6402,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>364</v>
@@ -6425,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>392</v>
@@ -6448,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>393</v>
@@ -6471,7 +6471,7 @@
         <v>6</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>394</v>
@@ -6494,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>340</v>
@@ -6517,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>370</v>
@@ -6540,7 +6540,7 @@
         <v>5</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>395</v>
@@ -6563,7 +6563,7 @@
         <v>5</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>396</v>
@@ -6586,7 +6586,7 @@
         <v>6</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D208" s="3">
         <v>11</v>
@@ -6609,7 +6609,7 @@
         <v>5</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>327</v>
@@ -6632,7 +6632,7 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>397</v>
@@ -6655,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>368</v>
@@ -6678,7 +6678,7 @@
         <v>6</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>364</v>
@@ -6701,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>327</v>
@@ -6724,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>337</v>
@@ -6747,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>398</v>
@@ -6770,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>344</v>
@@ -6793,7 +6793,7 @@
         <v>4</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>333</v>
@@ -6816,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>399</v>
@@ -6839,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>361</v>
@@ -6862,7 +6862,7 @@
         <v>6</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>339</v>
@@ -6885,7 +6885,7 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>339</v>
@@ -6908,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>328</v>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>370</v>
@@ -6954,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>400</v>
@@ -6977,7 +6977,7 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>401</v>
@@ -7000,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>327</v>
@@ -7023,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>402</v>
@@ -7046,7 +7046,7 @@
         <v>6</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>340</v>
@@ -7069,7 +7069,7 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>337</v>
@@ -7092,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>403</v>
@@ -7115,7 +7115,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>404</v>
@@ -7138,7 +7138,7 @@
         <v>4</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>364</v>
@@ -7161,7 +7161,7 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>364</v>
@@ -7184,7 +7184,7 @@
         <v>6</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>405</v>
@@ -7207,7 +7207,7 @@
         <v>6</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>405</v>
@@ -7230,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>337</v>
@@ -7253,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>327</v>
@@ -7276,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>340</v>
@@ -7299,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>385</v>
@@ -7322,7 +7322,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>385</v>
@@ -7345,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>385</v>
@@ -7368,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>406</v>
@@ -7391,7 +7391,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>327</v>
@@ -7414,7 +7414,7 @@
         <v>6</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D244" s="3">
         <v>11</v>
@@ -7437,7 +7437,7 @@
         <v>5</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>344</v>
@@ -7460,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>340</v>
@@ -7483,7 +7483,7 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>322</v>
@@ -7506,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>407</v>
@@ -7529,7 +7529,7 @@
         <v>6</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>364</v>
@@ -7552,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>343</v>
@@ -7575,7 +7575,7 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>327</v>
@@ -7598,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>364</v>
@@ -7621,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>408</v>
@@ -7644,7 +7644,7 @@
         <v>4</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>322</v>
@@ -7667,7 +7667,7 @@
         <v>6</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>339</v>
@@ -7690,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>339</v>
@@ -7713,7 +7713,7 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>340</v>
@@ -7736,7 +7736,7 @@
         <v>5</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>409</v>
@@ -7759,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>410</v>
@@ -7782,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>411</v>
@@ -7805,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>412</v>
@@ -7828,7 +7828,7 @@
         <v>4</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>340</v>
@@ -7851,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>327</v>
@@ -7874,7 +7874,7 @@
         <v>5</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>327</v>
@@ -7897,7 +7897,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>333</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>343</v>
@@ -7943,7 +7943,7 @@
         <v>6</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D267" s="3">
         <v>11</v>
@@ -7966,7 +7966,7 @@
         <v>6</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D268" s="3">
         <v>11</v>
@@ -7989,7 +7989,7 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>413</v>
@@ -8012,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>339</v>
@@ -8035,7 +8035,7 @@
         <v>6</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>339</v>
@@ -8058,7 +8058,7 @@
         <v>429</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>414</v>
@@ -8081,7 +8081,7 @@
         <v>429</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>415</v>
@@ -8104,7 +8104,7 @@
         <v>429</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>416</v>
@@ -8127,7 +8127,7 @@
         <v>429</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>417</v>
@@ -8150,7 +8150,7 @@
         <v>429</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>417</v>
@@ -8173,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>364</v>
@@ -8196,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>418</v>
@@ -8219,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>351</v>
@@ -8242,7 +8242,7 @@
         <v>4</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>337</v>
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>365</v>
@@ -8288,7 +8288,7 @@
         <v>4</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>419</v>
@@ -8311,7 +8311,7 @@
         <v>5</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>340</v>
@@ -8334,7 +8334,7 @@
         <v>5</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>340</v>
@@ -8357,7 +8357,7 @@
         <v>5</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>340</v>
@@ -8380,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>359</v>
@@ -8403,7 +8403,7 @@
         <v>6</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D287" s="3">
         <v>11</v>
@@ -8426,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>327</v>
@@ -8449,7 +8449,7 @@
         <v>5</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>340</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>344</v>
@@ -8495,7 +8495,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>420</v>
@@ -8518,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>421</v>
@@ -8541,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>358</v>
@@ -8564,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>343</v>
@@ -8587,7 +8587,7 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>332</v>
@@ -8610,7 +8610,7 @@
         <v>5</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>422</v>
@@ -8633,7 +8633,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>372</v>
@@ -8656,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>337</v>
@@ -8679,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>339</v>
@@ -8702,7 +8702,7 @@
         <v>4</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>365</v>
@@ -8725,7 +8725,7 @@
         <v>4</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>423</v>
@@ -8748,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>424</v>
@@ -8771,7 +8771,7 @@
         <v>4</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>327</v>
@@ -8794,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>343</v>
@@ -8817,7 +8817,7 @@
         <v>5</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>319</v>
@@ -8840,7 +8840,7 @@
         <v>4</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>425</v>
@@ -8863,7 +8863,7 @@
         <v>4</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>370</v>
@@ -8886,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>426</v>
@@ -8909,7 +8909,7 @@
         <v>6</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>427</v>
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>373</v>
@@ -8955,7 +8955,7 @@
         <v>4</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>428</v>
@@ -8978,7 +8978,7 @@
         <v>4</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>319</v>
